--- a/Code/Matrix 053122.xlsx
+++ b/Code/Matrix 053122.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juani\OneDrive\Documents\06 UofT - Data Analytics Bootcamp\20 Final Project\FinalProject_RoadTrippr\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB79A05-75B6-468F-83CF-FB5C4B229E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABA8A2C-B74C-4AD8-810B-CE9EB7C9197C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{90E5DD47-2F48-4ACB-8F16-0C5FCE4CF800}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Example" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Example!$A$5:$BA$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Example!$A$6:$BA$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Q1</t>
   </si>
@@ -164,6 +164,21 @@
   <si>
     <t>Avg Cluster 4</t>
   </si>
+  <si>
+    <t>Cluster 1</t>
+  </si>
+  <si>
+    <t>Cluster 2</t>
+  </si>
+  <si>
+    <t>Cluster 3</t>
+  </si>
+  <si>
+    <t>Cluster 4</t>
+  </si>
+  <si>
+    <t>Personality</t>
+  </si>
 </sst>
 </file>
 
@@ -220,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -620,11 +635,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -724,26 +781,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -760,6 +802,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A4D6F4-0A09-4B95-B75F-BD2E249CEFE1}">
-  <dimension ref="A1:BE25"/>
+  <dimension ref="A1:BE26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BD23" sqref="BD23"/>
+      <selection activeCell="W5" sqref="W5:AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1176,22 +1248,22 @@
       <c r="AY2" s="32"/>
       <c r="AZ2" s="34"/>
       <c r="BA2" s="3"/>
-      <c r="BB2" s="42" t="s">
+      <c r="BB2" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="BC2" s="42" t="s">
+      <c r="BC2" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="BD2" s="42" t="s">
+      <c r="BD2" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="BE2" s="42" t="s">
+      <c r="BE2" s="48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="48"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="5">
         <v>1</v>
       </c>
@@ -1339,430 +1411,343 @@
       <c r="AY3" s="6">
         <v>4</v>
       </c>
-      <c r="AZ3" s="49">
+      <c r="AZ3" s="44">
         <v>5</v>
       </c>
       <c r="BA3" s="3"/>
-      <c r="BB3" s="42"/>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42"/>
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="48"/>
+      <c r="BE3" s="48"/>
     </row>
     <row r="4" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="54"/>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="48"/>
+      <c r="BD4" s="48"/>
+      <c r="BE4" s="48"/>
+    </row>
+    <row r="5" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B5" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36" t="s">
+      <c r="C5" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36" t="s">
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36" t="s">
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36" t="s">
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36" t="s">
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36" t="s">
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36" t="s">
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36" t="s">
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="52" t="s">
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="44"/>
-      <c r="BD4" s="44"/>
-      <c r="BE4" s="44"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12">
-        <v>1</v>
-      </c>
-      <c r="J5" s="13">
-        <v>1</v>
-      </c>
-      <c r="K5" s="12">
-        <v>1</v>
-      </c>
-      <c r="L5" s="12">
-        <v>1</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12">
-        <v>1</v>
-      </c>
-      <c r="P5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>1</v>
-      </c>
-      <c r="R5" s="12">
-        <v>1</v>
-      </c>
-      <c r="S5" s="12">
-        <v>0</v>
-      </c>
-      <c r="T5" s="12">
-        <v>1</v>
-      </c>
-      <c r="U5" s="12">
-        <v>1</v>
-      </c>
-      <c r="V5" s="12">
-        <v>1</v>
-      </c>
-      <c r="W5" s="12">
-        <v>1</v>
-      </c>
-      <c r="X5" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="12">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="18">
-        <f>AVERAGE(C5:AZ5)</f>
-        <v>0.62</v>
-      </c>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="43"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>1</v>
-      </c>
-      <c r="R6" s="4">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4">
-        <v>1</v>
-      </c>
-      <c r="T6" s="4">
-        <v>1</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
-        <v>1</v>
-      </c>
-      <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="20">
-        <f t="shared" ref="BA6:BA25" si="0">AVERAGE(C6:AZ6)</f>
-        <v>0.48</v>
-      </c>
-      <c r="BB6" s="46"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
+      <c r="B6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
+        <v>1</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>1</v>
+      </c>
+      <c r="R6" s="12">
+        <v>1</v>
+      </c>
+      <c r="S6" s="12">
+        <v>0</v>
+      </c>
+      <c r="T6" s="12">
+        <v>1</v>
+      </c>
+      <c r="U6" s="12">
+        <v>1</v>
+      </c>
+      <c r="V6" s="12">
+        <v>1</v>
+      </c>
+      <c r="W6" s="12">
+        <v>1</v>
+      </c>
+      <c r="X6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="18">
+        <f>AVERAGE(C6:AZ6)</f>
+        <v>0.62</v>
+      </c>
+      <c r="BB6" s="40"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
       <c r="BE6" s="39"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.3">
@@ -1770,13 +1755,13 @@
         <v>33</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -1785,22 +1770,22 @@
         <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
@@ -1818,22 +1803,22 @@
         <v>1</v>
       </c>
       <c r="R7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="4">
         <v>1</v>
       </c>
       <c r="W7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="4">
         <v>0</v>
@@ -1842,34 +1827,34 @@
         <v>1</v>
       </c>
       <c r="Z7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="4">
         <v>0</v>
       </c>
       <c r="AI7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7" s="4">
         <v>1</v>
@@ -1878,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="AL7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="4">
         <v>1</v>
@@ -1896,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="AR7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7" s="4">
         <v>1</v>
@@ -1905,38 +1890,38 @@
         <v>0</v>
       </c>
       <c r="AU7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="4">
         <v>0</v>
       </c>
       <c r="AW7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="20">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="BB7" s="46"/>
-      <c r="BC7" s="38"/>
-      <c r="BD7" s="38"/>
-      <c r="BE7" s="39"/>
+        <f t="shared" ref="BA7:BA26" si="0">AVERAGE(C7:AZ7)</f>
+        <v>0.48</v>
+      </c>
+      <c r="BB7" s="41"/>
+      <c r="BC7" s="35"/>
+      <c r="BD7" s="35"/>
+      <c r="BE7" s="36"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -1945,22 +1930,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
       </c>
       <c r="J8" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -1978,55 +1963,55 @@
         <v>1</v>
       </c>
       <c r="P8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="4">
         <v>1</v>
       </c>
       <c r="R8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="4">
         <v>0</v>
       </c>
       <c r="Y8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="4">
         <v>1</v>
       </c>
       <c r="AB8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="4">
         <v>0</v>
       </c>
       <c r="AD8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="4">
         <v>1</v>
@@ -2035,16 +2020,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="4">
         <v>1</v>
       </c>
       <c r="AK8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="4">
         <v>1</v>
@@ -2059,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8" s="4">
         <v>0</v>
@@ -2071,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="AU8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="4">
         <v>0</v>
@@ -2090,52 +2075,52 @@
       </c>
       <c r="BA8" s="20">
         <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="BB8" s="46"/>
-      <c r="BC8" s="38"/>
-      <c r="BD8" s="38"/>
-      <c r="BE8" s="39"/>
+        <v>0.6</v>
+      </c>
+      <c r="BB8" s="41"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="36"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="10">
         <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="10">
         <v>1</v>
       </c>
       <c r="K9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4">
         <v>1</v>
@@ -2153,13 +2138,13 @@
         <v>1</v>
       </c>
       <c r="S9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="4">
         <v>1</v>
       </c>
       <c r="U9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="4">
         <v>0</v>
@@ -2171,13 +2156,13 @@
         <v>0</v>
       </c>
       <c r="Y9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="4">
         <v>0</v>
@@ -2186,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="4">
         <v>0</v>
@@ -2195,40 +2180,40 @@
         <v>0</v>
       </c>
       <c r="AG9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" s="4">
         <v>1</v>
       </c>
       <c r="AK9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="4">
         <v>1</v>
       </c>
       <c r="AQ9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="4">
         <v>1</v>
@@ -2237,53 +2222,53 @@
         <v>0</v>
       </c>
       <c r="AU9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="4">
         <v>0</v>
       </c>
       <c r="AX9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="4">
         <v>1</v>
       </c>
       <c r="BA9" s="20">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="BB9" s="46"/>
-      <c r="BC9" s="38"/>
-      <c r="BD9" s="38"/>
-      <c r="BE9" s="39"/>
+        <v>0.48</v>
+      </c>
+      <c r="BB9" s="41"/>
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="36"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -2295,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="4">
         <v>0</v>
@@ -2310,43 +2295,43 @@
         <v>1</v>
       </c>
       <c r="P10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="4">
         <v>1</v>
       </c>
       <c r="U10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="4">
         <v>0</v>
       </c>
       <c r="W10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="4">
         <v>0</v>
@@ -2358,16 +2343,16 @@
         <v>0</v>
       </c>
       <c r="AF10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="4">
         <v>1</v>
       </c>
       <c r="AI10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="4">
         <v>1</v>
@@ -2376,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="AL10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="4">
         <v>0</v>
@@ -2385,59 +2370,59 @@
         <v>1</v>
       </c>
       <c r="AO10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS10" s="4">
         <v>1</v>
       </c>
       <c r="AT10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="4">
         <v>1</v>
       </c>
       <c r="AV10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="4">
         <v>0</v>
       </c>
       <c r="AZ10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="20">
         <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-      <c r="BB10" s="46"/>
-      <c r="BC10" s="38"/>
-      <c r="BD10" s="38"/>
-      <c r="BE10" s="39"/>
+        <v>0.6</v>
+      </c>
+      <c r="BB10" s="41"/>
+      <c r="BC10" s="35"/>
+      <c r="BD10" s="35"/>
+      <c r="BE10" s="36"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -2446,19 +2431,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
       </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -2470,16 +2455,16 @@
         <v>1</v>
       </c>
       <c r="N11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="4">
         <v>1</v>
       </c>
       <c r="P11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="4">
         <v>0</v>
@@ -2491,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="U11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="4">
         <v>0</v>
@@ -2503,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="4">
         <v>0</v>
@@ -2512,10 +2497,10 @@
         <v>1</v>
       </c>
       <c r="AB11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="4">
         <v>1</v>
@@ -2530,13 +2515,13 @@
         <v>1</v>
       </c>
       <c r="AH11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="4">
         <v>1</v>
       </c>
       <c r="AJ11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="4">
         <v>1</v>
@@ -2548,13 +2533,13 @@
         <v>0</v>
       </c>
       <c r="AN11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11" s="4">
         <v>0</v>
       </c>
       <c r="AP11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="4">
         <v>0</v>
@@ -2563,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="4">
         <v>1</v>
@@ -2572,41 +2557,41 @@
         <v>1</v>
       </c>
       <c r="AV11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="4">
         <v>1</v>
       </c>
       <c r="AX11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="4">
         <v>0</v>
       </c>
       <c r="BA11" s="20">
         <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BB11" s="46"/>
-      <c r="BC11" s="38"/>
-      <c r="BD11" s="38"/>
-      <c r="BE11" s="39"/>
+        <v>0.54</v>
+      </c>
+      <c r="BB11" s="41"/>
+      <c r="BC11" s="35"/>
+      <c r="BD11" s="35"/>
+      <c r="BE11" s="36"/>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -2621,16 +2606,16 @@
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="10">
         <v>0</v>
       </c>
       <c r="K12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4">
         <v>1</v>
@@ -2642,19 +2627,19 @@
         <v>1</v>
       </c>
       <c r="P12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="4">
         <v>0</v>
       </c>
       <c r="S12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="4">
         <v>1</v>
@@ -2675,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="4">
         <v>0</v>
       </c>
       <c r="AC12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="4">
         <v>1</v>
@@ -2690,10 +2675,10 @@
         <v>0</v>
       </c>
       <c r="AF12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12" s="4">
         <v>0</v>
@@ -2702,19 +2687,19 @@
         <v>1</v>
       </c>
       <c r="AJ12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="4">
         <v>1</v>
       </c>
       <c r="AL12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="4">
         <v>0</v>
@@ -2723,584 +2708,584 @@
         <v>1</v>
       </c>
       <c r="AQ12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="4">
         <v>0</v>
       </c>
       <c r="AS12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="4">
         <v>1</v>
       </c>
       <c r="AU12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12" s="4">
         <v>0</v>
       </c>
       <c r="AW12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="4">
         <v>0</v>
       </c>
       <c r="BA12" s="20">
         <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BB12" s="41"/>
+      <c r="BC12" s="35"/>
+      <c r="BD12" s="35"/>
+      <c r="BE12" s="36"/>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="20">
+        <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
-      <c r="BB12" s="46"/>
-      <c r="BC12" s="38"/>
-      <c r="BD12" s="38"/>
-      <c r="BE12" s="39"/>
+      <c r="BB13" s="41"/>
+      <c r="BC13" s="35"/>
+      <c r="BD13" s="35"/>
+      <c r="BE13" s="36"/>
     </row>
-    <row r="13" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+    <row r="14" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="23">
-        <v>0</v>
-      </c>
-      <c r="D13" s="23">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1</v>
-      </c>
-      <c r="F13" s="24">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
-        <v>1</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23">
-        <v>0</v>
-      </c>
-      <c r="J13" s="24">
-        <v>1</v>
-      </c>
-      <c r="K13" s="23">
-        <v>1</v>
-      </c>
-      <c r="L13" s="23">
-        <v>0</v>
-      </c>
-      <c r="M13" s="23">
-        <v>0</v>
-      </c>
-      <c r="N13" s="23">
-        <v>1</v>
-      </c>
-      <c r="O13" s="23">
-        <v>1</v>
-      </c>
-      <c r="P13" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="23">
-        <v>0</v>
-      </c>
-      <c r="R13" s="23">
-        <v>0</v>
-      </c>
-      <c r="S13" s="23">
-        <v>1</v>
-      </c>
-      <c r="T13" s="23">
-        <v>0</v>
-      </c>
-      <c r="U13" s="23">
-        <v>0</v>
-      </c>
-      <c r="V13" s="23">
-        <v>1</v>
-      </c>
-      <c r="W13" s="23">
-        <v>1</v>
-      </c>
-      <c r="X13" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="23">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="23">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="25">
+      <c r="C14" s="23">
+        <v>0</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
+        <v>1</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0</v>
+      </c>
+      <c r="J14" s="24">
+        <v>1</v>
+      </c>
+      <c r="K14" s="23">
+        <v>1</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0</v>
+      </c>
+      <c r="M14" s="23">
+        <v>0</v>
+      </c>
+      <c r="N14" s="23">
+        <v>1</v>
+      </c>
+      <c r="O14" s="23">
+        <v>1</v>
+      </c>
+      <c r="P14" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>0</v>
+      </c>
+      <c r="R14" s="23">
+        <v>0</v>
+      </c>
+      <c r="S14" s="23">
+        <v>1</v>
+      </c>
+      <c r="T14" s="23">
+        <v>0</v>
+      </c>
+      <c r="U14" s="23">
+        <v>0</v>
+      </c>
+      <c r="V14" s="23">
+        <v>1</v>
+      </c>
+      <c r="W14" s="23">
+        <v>1</v>
+      </c>
+      <c r="X14" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="23">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="25">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
-      <c r="BB13" s="46"/>
-      <c r="BC13" s="38"/>
-      <c r="BD13" s="38"/>
-      <c r="BE13" s="39"/>
+      <c r="BB14" s="41"/>
+      <c r="BC14" s="35"/>
+      <c r="BD14" s="35"/>
+      <c r="BE14" s="36"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="16">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16">
-        <v>0</v>
-      </c>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
-        <v>0</v>
-      </c>
-      <c r="L14" s="16">
-        <v>0</v>
-      </c>
-      <c r="M14" s="16">
-        <v>0</v>
-      </c>
-      <c r="N14" s="16">
-        <v>1</v>
-      </c>
-      <c r="O14" s="16">
-        <v>1</v>
-      </c>
-      <c r="P14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>1</v>
-      </c>
-      <c r="R14" s="16">
-        <v>1</v>
-      </c>
-      <c r="S14" s="16">
-        <v>1</v>
-      </c>
-      <c r="T14" s="16">
-        <v>1</v>
-      </c>
-      <c r="U14" s="16">
-        <v>1</v>
-      </c>
-      <c r="V14" s="16">
-        <v>0</v>
-      </c>
-      <c r="W14" s="16">
-        <v>0</v>
-      </c>
-      <c r="X14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AV14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AY14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="18">
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0</v>
+      </c>
+      <c r="N15" s="16">
+        <v>1</v>
+      </c>
+      <c r="O15" s="16">
+        <v>1</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>1</v>
+      </c>
+      <c r="R15" s="16">
+        <v>1</v>
+      </c>
+      <c r="S15" s="16">
+        <v>1</v>
+      </c>
+      <c r="T15" s="16">
+        <v>1</v>
+      </c>
+      <c r="U15" s="16">
+        <v>1</v>
+      </c>
+      <c r="V15" s="16">
+        <v>0</v>
+      </c>
+      <c r="W15" s="16">
+        <v>0</v>
+      </c>
+      <c r="X15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="18">
         <f t="shared" si="0"/>
         <v>0.46</v>
       </c>
-      <c r="BB14" s="46"/>
-      <c r="BC14" s="38"/>
-      <c r="BD14" s="38"/>
-      <c r="BE14" s="39"/>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="10">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4">
-        <v>1</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4">
-        <v>1</v>
-      </c>
-      <c r="T15" s="4">
-        <v>1</v>
-      </c>
-      <c r="U15" s="4">
-        <v>0</v>
-      </c>
-      <c r="V15" s="4">
-        <v>1</v>
-      </c>
-      <c r="W15" s="4">
-        <v>1</v>
-      </c>
-      <c r="X15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="4">
-        <v>1</v>
-      </c>
-      <c r="BA15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-      <c r="BB15" s="46"/>
-      <c r="BC15" s="38"/>
-      <c r="BD15" s="38"/>
-      <c r="BE15" s="39"/>
+      <c r="BB15" s="41"/>
+      <c r="BC15" s="35"/>
+      <c r="BD15" s="35"/>
+      <c r="BE15" s="36"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="10">
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
       </c>
       <c r="L16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="4">
         <v>1</v>
@@ -3309,25 +3294,25 @@
         <v>0</v>
       </c>
       <c r="Q16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="4">
         <v>1</v>
       </c>
       <c r="U16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="4">
         <v>1</v>
       </c>
       <c r="W16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="4">
         <v>1</v>
@@ -3342,28 +3327,28 @@
         <v>0</v>
       </c>
       <c r="AB16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="4">
         <v>0</v>
       </c>
       <c r="AD16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="4">
         <v>1</v>
       </c>
       <c r="AF16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="4">
         <v>1</v>
       </c>
       <c r="AI16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="4">
         <v>0</v>
@@ -3372,13 +3357,13 @@
         <v>1</v>
       </c>
       <c r="AL16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16" s="4">
         <v>1</v>
@@ -3387,53 +3372,53 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="4">
         <v>1</v>
       </c>
       <c r="AY16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="20">
         <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="BB16" s="46"/>
-      <c r="BC16" s="38"/>
-      <c r="BD16" s="38"/>
-      <c r="BE16" s="39"/>
+        <v>0.54</v>
+      </c>
+      <c r="BB16" s="41"/>
+      <c r="BC16" s="35"/>
+      <c r="BD16" s="35"/>
+      <c r="BE16" s="36"/>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -3442,13 +3427,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -3457,34 +3442,34 @@
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="4">
         <v>1</v>
       </c>
       <c r="P17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="4">
         <v>0</v>
       </c>
       <c r="T17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="4">
         <v>1</v>
@@ -3493,13 +3478,13 @@
         <v>1</v>
       </c>
       <c r="W17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="4">
         <v>0</v>
@@ -3508,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="4">
         <v>0</v>
@@ -3517,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="4">
         <v>0</v>
@@ -3526,49 +3511,49 @@
         <v>0</v>
       </c>
       <c r="AH17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="4">
         <v>1</v>
       </c>
       <c r="AL17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="4">
         <v>0</v>
       </c>
       <c r="AN17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="4">
         <v>1</v>
       </c>
       <c r="AR17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="4">
         <v>1</v>
       </c>
       <c r="AT17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="4">
         <v>1</v>
@@ -3580,38 +3565,38 @@
         <v>1</v>
       </c>
       <c r="AZ17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="20">
         <f t="shared" si="0"/>
-        <v>0.52</v>
-      </c>
-      <c r="BB17" s="46"/>
-      <c r="BC17" s="38"/>
-      <c r="BD17" s="38"/>
-      <c r="BE17" s="39"/>
+        <v>0.48</v>
+      </c>
+      <c r="BB17" s="41"/>
+      <c r="BC17" s="35"/>
+      <c r="BD17" s="35"/>
+      <c r="BE17" s="36"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
       <c r="F18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
@@ -3620,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -3629,22 +3614,22 @@
         <v>0</v>
       </c>
       <c r="M18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="4">
         <v>1</v>
       </c>
       <c r="P18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="4">
         <v>0</v>
       </c>
       <c r="R18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="4">
         <v>0</v>
@@ -3662,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="X18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="4">
         <v>1</v>
@@ -3674,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="4">
         <v>0</v>
@@ -3683,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="4">
         <v>0</v>
@@ -3695,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="4">
         <v>1</v>
@@ -3704,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="AL18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18" s="4">
         <v>0</v>
@@ -3719,25 +3704,25 @@
         <v>1</v>
       </c>
       <c r="AQ18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18" s="4">
         <v>1</v>
       </c>
       <c r="AS18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="4">
         <v>1</v>
       </c>
       <c r="AU18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="4">
         <v>0</v>
       </c>
       <c r="AW18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="4">
         <v>1</v>
@@ -3750,707 +3735,707 @@
       </c>
       <c r="BA18" s="20">
         <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="BB18" s="41"/>
+      <c r="BC18" s="35"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="36"/>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
+      <c r="W19" s="4">
+        <v>1</v>
+      </c>
+      <c r="X19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="20">
+        <f t="shared" si="0"/>
         <v>0.46</v>
       </c>
-      <c r="BB18" s="46"/>
-      <c r="BC18" s="38"/>
-      <c r="BD18" s="38"/>
-      <c r="BE18" s="39"/>
+      <c r="BB19" s="41"/>
+      <c r="BC19" s="35"/>
+      <c r="BD19" s="35"/>
+      <c r="BE19" s="36"/>
     </row>
-    <row r="19" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26" t="s">
+    <row r="20" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="24">
-        <v>1</v>
-      </c>
-      <c r="D19" s="24">
-        <v>0</v>
-      </c>
-      <c r="E19" s="24">
-        <v>1</v>
-      </c>
-      <c r="F19" s="24">
-        <v>1</v>
-      </c>
-      <c r="G19" s="24">
-        <v>1</v>
-      </c>
-      <c r="H19" s="24">
-        <v>0</v>
-      </c>
-      <c r="I19" s="24">
-        <v>1</v>
-      </c>
-      <c r="J19" s="24">
-        <v>1</v>
-      </c>
-      <c r="K19" s="24">
-        <v>1</v>
-      </c>
-      <c r="L19" s="24">
-        <v>0</v>
-      </c>
-      <c r="M19" s="24">
-        <v>0</v>
-      </c>
-      <c r="N19" s="24">
-        <v>1</v>
-      </c>
-      <c r="O19" s="24">
-        <v>1</v>
-      </c>
-      <c r="P19" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="24">
-        <v>1</v>
-      </c>
-      <c r="R19" s="24">
-        <v>0</v>
-      </c>
-      <c r="S19" s="24">
-        <v>1</v>
-      </c>
-      <c r="T19" s="24">
-        <v>1</v>
-      </c>
-      <c r="U19" s="24">
-        <v>1</v>
-      </c>
-      <c r="V19" s="24">
-        <v>1</v>
-      </c>
-      <c r="W19" s="24">
-        <v>1</v>
-      </c>
-      <c r="X19" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="24">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="24">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AL19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="24">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AP19" s="24">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AR19" s="24">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="24">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AV19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AW19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AX19" s="24">
-        <v>1</v>
-      </c>
-      <c r="AY19" s="24">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="24">
-        <v>0</v>
-      </c>
-      <c r="BA19" s="25">
+      <c r="C20" s="24">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24">
+        <v>1</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="24">
+        <v>1</v>
+      </c>
+      <c r="H20" s="24">
+        <v>0</v>
+      </c>
+      <c r="I20" s="24">
+        <v>1</v>
+      </c>
+      <c r="J20" s="24">
+        <v>1</v>
+      </c>
+      <c r="K20" s="24">
+        <v>1</v>
+      </c>
+      <c r="L20" s="24">
+        <v>0</v>
+      </c>
+      <c r="M20" s="24">
+        <v>0</v>
+      </c>
+      <c r="N20" s="24">
+        <v>1</v>
+      </c>
+      <c r="O20" s="24">
+        <v>1</v>
+      </c>
+      <c r="P20" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>1</v>
+      </c>
+      <c r="R20" s="24">
+        <v>0</v>
+      </c>
+      <c r="S20" s="24">
+        <v>1</v>
+      </c>
+      <c r="T20" s="24">
+        <v>1</v>
+      </c>
+      <c r="U20" s="24">
+        <v>1</v>
+      </c>
+      <c r="V20" s="24">
+        <v>1</v>
+      </c>
+      <c r="W20" s="24">
+        <v>1</v>
+      </c>
+      <c r="X20" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="24">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="24">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="24">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="25">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="BB19" s="46"/>
-      <c r="BC19" s="38"/>
-      <c r="BD19" s="38"/>
-      <c r="BE19" s="39"/>
+      <c r="BB20" s="41"/>
+      <c r="BC20" s="35"/>
+      <c r="BD20" s="35"/>
+      <c r="BE20" s="36"/>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="17">
-        <v>0</v>
-      </c>
-      <c r="D20" s="17">
-        <v>1</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17">
-        <v>1</v>
-      </c>
-      <c r="G20" s="17">
-        <v>1</v>
-      </c>
-      <c r="H20" s="17">
-        <v>1</v>
-      </c>
-      <c r="I20" s="17">
-        <v>1</v>
-      </c>
-      <c r="J20" s="17">
-        <v>1</v>
-      </c>
-      <c r="K20" s="17">
-        <v>0</v>
-      </c>
-      <c r="L20" s="17">
-        <v>0</v>
-      </c>
-      <c r="M20" s="17">
-        <v>0</v>
-      </c>
-      <c r="N20" s="17">
-        <v>1</v>
-      </c>
-      <c r="O20" s="17">
-        <v>0</v>
-      </c>
-      <c r="P20" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>0</v>
-      </c>
-      <c r="R20" s="17">
-        <v>0</v>
-      </c>
-      <c r="S20" s="17">
-        <v>1</v>
-      </c>
-      <c r="T20" s="17">
-        <v>1</v>
-      </c>
-      <c r="U20" s="17">
-        <v>0</v>
-      </c>
-      <c r="V20" s="17">
-        <v>1</v>
-      </c>
-      <c r="W20" s="17">
-        <v>1</v>
-      </c>
-      <c r="X20" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AO20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AQ20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AX20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AY20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AZ20" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA20" s="18">
+      <c r="C21" s="17">
+        <v>0</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
+        <v>1</v>
+      </c>
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
+        <v>1</v>
+      </c>
+      <c r="I21" s="17">
+        <v>1</v>
+      </c>
+      <c r="J21" s="17">
+        <v>1</v>
+      </c>
+      <c r="K21" s="17">
+        <v>0</v>
+      </c>
+      <c r="L21" s="17">
+        <v>0</v>
+      </c>
+      <c r="M21" s="17">
+        <v>0</v>
+      </c>
+      <c r="N21" s="17">
+        <v>1</v>
+      </c>
+      <c r="O21" s="17">
+        <v>0</v>
+      </c>
+      <c r="P21" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>0</v>
+      </c>
+      <c r="R21" s="17">
+        <v>0</v>
+      </c>
+      <c r="S21" s="17">
+        <v>1</v>
+      </c>
+      <c r="T21" s="17">
+        <v>1</v>
+      </c>
+      <c r="U21" s="17">
+        <v>0</v>
+      </c>
+      <c r="V21" s="17">
+        <v>1</v>
+      </c>
+      <c r="W21" s="17">
+        <v>1</v>
+      </c>
+      <c r="X21" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="18">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="BB20" s="46"/>
-      <c r="BC20" s="38"/>
-      <c r="BD20" s="38"/>
-      <c r="BE20" s="39"/>
+      <c r="BB21" s="41"/>
+      <c r="BC21" s="35"/>
+      <c r="BD21" s="35"/>
+      <c r="BE21" s="36"/>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="10">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1</v>
-      </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10">
-        <v>1</v>
-      </c>
-      <c r="L21" s="10">
-        <v>0</v>
-      </c>
-      <c r="M21" s="10">
-        <v>0</v>
-      </c>
-      <c r="N21" s="10">
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
-        <v>1</v>
-      </c>
-      <c r="P21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>1</v>
-      </c>
-      <c r="R21" s="10">
-        <v>0</v>
-      </c>
-      <c r="S21" s="10">
-        <v>0</v>
-      </c>
-      <c r="T21" s="10">
-        <v>0</v>
-      </c>
-      <c r="U21" s="10">
-        <v>1</v>
-      </c>
-      <c r="V21" s="10">
-        <v>1</v>
-      </c>
-      <c r="W21" s="10">
-        <v>0</v>
-      </c>
-      <c r="X21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AO21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AQ21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AY21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="10">
-        <v>1</v>
-      </c>
-      <c r="BA21" s="20">
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
+        <v>1</v>
+      </c>
+      <c r="O22" s="10">
+        <v>1</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>1</v>
+      </c>
+      <c r="R22" s="10">
+        <v>0</v>
+      </c>
+      <c r="S22" s="10">
+        <v>0</v>
+      </c>
+      <c r="T22" s="10">
+        <v>0</v>
+      </c>
+      <c r="U22" s="10">
+        <v>1</v>
+      </c>
+      <c r="V22" s="10">
+        <v>1</v>
+      </c>
+      <c r="W22" s="10">
+        <v>0</v>
+      </c>
+      <c r="X22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="10">
+        <v>1</v>
+      </c>
+      <c r="BA22" s="20">
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
-      <c r="BB21" s="46"/>
-      <c r="BC21" s="38"/>
-      <c r="BD21" s="38"/>
-      <c r="BE21" s="39"/>
-    </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4">
-        <v>1</v>
-      </c>
-      <c r="O22" s="4">
-        <v>1</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4">
-        <v>1</v>
-      </c>
-      <c r="S22" s="4">
-        <v>0</v>
-      </c>
-      <c r="T22" s="4">
-        <v>1</v>
-      </c>
-      <c r="U22" s="4">
-        <v>1</v>
-      </c>
-      <c r="V22" s="4">
-        <v>1</v>
-      </c>
-      <c r="W22" s="4">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AW22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="4">
-        <v>1</v>
-      </c>
-      <c r="BA22" s="20">
-        <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="BB22" s="46"/>
-      <c r="BC22" s="38"/>
-      <c r="BD22" s="38"/>
-      <c r="BE22" s="39"/>
+      <c r="BB22" s="41"/>
+      <c r="BC22" s="35"/>
+      <c r="BD22" s="35"/>
+      <c r="BE22" s="36"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <v>1</v>
       </c>
       <c r="I23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -4459,16 +4444,16 @@
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4">
         <v>1</v>
       </c>
       <c r="O23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="4">
         <v>0</v>
@@ -4477,34 +4462,34 @@
         <v>1</v>
       </c>
       <c r="S23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="4">
         <v>1</v>
       </c>
       <c r="Y23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="4">
         <v>0</v>
       </c>
       <c r="AB23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="4">
         <v>1</v>
@@ -4519,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="AG23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="4">
         <v>1</v>
@@ -4528,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="4">
         <v>0</v>
@@ -4537,31 +4522,31 @@
         <v>0</v>
       </c>
       <c r="AM23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23" s="4">
         <v>1</v>
       </c>
       <c r="AO23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="4">
         <v>1</v>
       </c>
       <c r="AT23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="4">
         <v>1</v>
@@ -4573,38 +4558,38 @@
         <v>1</v>
       </c>
       <c r="AY23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="20">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="BB23" s="46"/>
-      <c r="BC23" s="38"/>
-      <c r="BD23" s="38"/>
-      <c r="BE23" s="39"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BB23" s="41"/>
+      <c r="BC23" s="35"/>
+      <c r="BD23" s="35"/>
+      <c r="BE23" s="36"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
@@ -4619,16 +4604,16 @@
         <v>0</v>
       </c>
       <c r="K24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="4">
         <v>0</v>
       </c>
       <c r="M24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="4">
         <v>0</v>
@@ -4640,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="4">
         <v>1</v>
@@ -4652,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="4">
         <v>1</v>
@@ -4661,19 +4646,19 @@
         <v>1</v>
       </c>
       <c r="Y24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="4">
         <v>0</v>
       </c>
       <c r="AB24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="4">
         <v>1</v>
@@ -4682,28 +4667,28 @@
         <v>1</v>
       </c>
       <c r="AF24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="4">
         <v>1</v>
       </c>
       <c r="AI24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="4">
         <v>1</v>
       </c>
       <c r="AK24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="4">
         <v>1</v>
@@ -4712,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="4">
         <v>1</v>
@@ -4721,13 +4706,13 @@
         <v>1</v>
       </c>
       <c r="AS24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="4">
         <v>0</v>
       </c>
       <c r="AU24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV24" s="4">
         <v>1</v>
@@ -4746,199 +4731,375 @@
       </c>
       <c r="BA24" s="20">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="BB24" s="41"/>
+      <c r="BC24" s="35"/>
+      <c r="BD24" s="35"/>
+      <c r="BE24" s="36"/>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>1</v>
+      </c>
+      <c r="W25" s="4">
+        <v>1</v>
+      </c>
+      <c r="X25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="20">
+        <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="BB24" s="46"/>
-      <c r="BC24" s="38"/>
-      <c r="BD24" s="38"/>
-      <c r="BE24" s="39"/>
+      <c r="BB25" s="41"/>
+      <c r="BC25" s="35"/>
+      <c r="BD25" s="35"/>
+      <c r="BE25" s="36"/>
     </row>
-    <row r="25" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
+    <row r="26" spans="1:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="23">
-        <v>1</v>
-      </c>
-      <c r="D25" s="23">
-        <v>1</v>
-      </c>
-      <c r="E25" s="23">
-        <v>0</v>
-      </c>
-      <c r="F25" s="24">
-        <v>1</v>
-      </c>
-      <c r="G25" s="23">
-        <v>1</v>
-      </c>
-      <c r="H25" s="23">
-        <v>0</v>
-      </c>
-      <c r="I25" s="23">
-        <v>1</v>
-      </c>
-      <c r="J25" s="24">
-        <v>0</v>
-      </c>
-      <c r="K25" s="23">
-        <v>1</v>
-      </c>
-      <c r="L25" s="23">
-        <v>0</v>
-      </c>
-      <c r="M25" s="23">
-        <v>0</v>
-      </c>
-      <c r="N25" s="23">
-        <v>1</v>
-      </c>
-      <c r="O25" s="23">
-        <v>0</v>
-      </c>
-      <c r="P25" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="23">
-        <v>0</v>
-      </c>
-      <c r="R25" s="23">
-        <v>0</v>
-      </c>
-      <c r="S25" s="23">
-        <v>0</v>
-      </c>
-      <c r="T25" s="23">
-        <v>1</v>
-      </c>
-      <c r="U25" s="23">
-        <v>1</v>
-      </c>
-      <c r="V25" s="23">
-        <v>1</v>
-      </c>
-      <c r="W25" s="23">
-        <v>1</v>
-      </c>
-      <c r="X25" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="23">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="23">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="23">
-        <v>1</v>
-      </c>
-      <c r="AR25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="23">
-        <v>1</v>
-      </c>
-      <c r="AU25" s="23">
-        <v>1</v>
-      </c>
-      <c r="AV25" s="23">
-        <v>1</v>
-      </c>
-      <c r="AW25" s="23">
-        <v>1</v>
-      </c>
-      <c r="AX25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="23">
-        <v>0</v>
-      </c>
-      <c r="BA25" s="25">
+      <c r="C26" s="23">
+        <v>1</v>
+      </c>
+      <c r="D26" s="23">
+        <v>1</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24">
+        <v>1</v>
+      </c>
+      <c r="G26" s="23">
+        <v>1</v>
+      </c>
+      <c r="H26" s="23">
+        <v>0</v>
+      </c>
+      <c r="I26" s="23">
+        <v>1</v>
+      </c>
+      <c r="J26" s="24">
+        <v>0</v>
+      </c>
+      <c r="K26" s="23">
+        <v>1</v>
+      </c>
+      <c r="L26" s="23">
+        <v>0</v>
+      </c>
+      <c r="M26" s="23">
+        <v>0</v>
+      </c>
+      <c r="N26" s="23">
+        <v>1</v>
+      </c>
+      <c r="O26" s="23">
+        <v>0</v>
+      </c>
+      <c r="P26" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>0</v>
+      </c>
+      <c r="R26" s="23">
+        <v>0</v>
+      </c>
+      <c r="S26" s="23">
+        <v>0</v>
+      </c>
+      <c r="T26" s="23">
+        <v>1</v>
+      </c>
+      <c r="U26" s="23">
+        <v>1</v>
+      </c>
+      <c r="V26" s="23">
+        <v>1</v>
+      </c>
+      <c r="W26" s="23">
+        <v>1</v>
+      </c>
+      <c r="X26" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="23">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="25">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="BB25" s="47"/>
-      <c r="BC25" s="40"/>
-      <c r="BD25" s="40"/>
-      <c r="BE25" s="41"/>
+      <c r="BB26" s="42"/>
+      <c r="BC26" s="37"/>
+      <c r="BD26" s="37"/>
+      <c r="BE26" s="38"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BA25">
-    <sortCondition ref="A5:A25"/>
-    <sortCondition descending="1" ref="BA5:BA25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:BA26">
+    <sortCondition ref="A6:A26"/>
+    <sortCondition descending="1" ref="BA6:BA26"/>
   </sortState>
-  <mergeCells count="14">
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="AL4:AP4"/>
-    <mergeCell ref="AQ4:AU4"/>
-    <mergeCell ref="AV4:AZ4"/>
+  <mergeCells count="24">
+    <mergeCell ref="AB5:AF5"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="M4:Q4"/>
     <mergeCell ref="R4:V4"/>
     <mergeCell ref="W4:AA4"/>
     <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="BB2:BB5"/>
+    <mergeCell ref="BC2:BC5"/>
+    <mergeCell ref="BD2:BD5"/>
+    <mergeCell ref="BE2:BE5"/>
+    <mergeCell ref="AG5:AK5"/>
+    <mergeCell ref="AL5:AP5"/>
+    <mergeCell ref="AQ5:AU5"/>
+    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="AL4:AP4"/>
+    <mergeCell ref="AQ4:AU4"/>
+    <mergeCell ref="AV4:AZ4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
